--- a/tabla_comparativa_botella.xlsx
+++ b/tabla_comparativa_botella.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nacho\Documents\6º SEMESTRE\SENSORES E INSTRUMENTACIÓN\PRACTICA\PRACTICA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC36F8-6EF8-4D8B-9C9A-AC1980EF4F42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28EE6F7-3887-410F-A9C5-B93BC451A75A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="180" windowWidth="13032" windowHeight="8964" xr2:uid="{94B0B397-0C4B-4C07-AC4D-DF8162217577}"/>
+    <workbookView xWindow="900" yWindow="3396" windowWidth="13032" windowHeight="8964" xr2:uid="{94B0B397-0C4B-4C07-AC4D-DF8162217577}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>E. HC-SR04</t>
   </si>
@@ -70,6 +70,93 @@
   </si>
   <si>
     <t>D.E GP2Y0A21YK0F</t>
+  </si>
+  <si>
+    <t>Medida</t>
+  </si>
+  <si>
+    <t>14'6</t>
+  </si>
+  <si>
+    <t>2'6</t>
+  </si>
+  <si>
+    <t>23'8</t>
+  </si>
+  <si>
+    <t>19'4</t>
+  </si>
+  <si>
+    <t>3'2</t>
+  </si>
+  <si>
+    <t>30'8</t>
+  </si>
+  <si>
+    <t>32'4</t>
+  </si>
+  <si>
+    <t>0'8</t>
+  </si>
+  <si>
+    <t>1'2</t>
+  </si>
+  <si>
+    <t>41'8</t>
+  </si>
+  <si>
+    <t>41'2</t>
+  </si>
+  <si>
+    <t>0'4</t>
+  </si>
+  <si>
+    <t>49'6</t>
+  </si>
+  <si>
+    <t>50'6</t>
+  </si>
+  <si>
+    <t>62'8</t>
+  </si>
+  <si>
+    <t>60'4</t>
+  </si>
+  <si>
+    <t>65'6</t>
+  </si>
+  <si>
+    <t>1'516</t>
+  </si>
+  <si>
+    <t>0'447</t>
+  </si>
+  <si>
+    <t>1'095</t>
+  </si>
+  <si>
+    <t>0'836</t>
+  </si>
+  <si>
+    <t>0'489</t>
+  </si>
+  <si>
+    <t>0'748</t>
+  </si>
+  <si>
+    <t>1'469</t>
+  </si>
+  <si>
+    <t>8'522</t>
+  </si>
+  <si>
+    <t>2'244</t>
+  </si>
+  <si>
+    <t>2'939</t>
+  </si>
+  <si>
+    <t>71'0</t>
   </si>
 </sst>
 </file>
@@ -424,12 +511,15 @@
   <dimension ref="B4:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -474,8 +564,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>14.6</v>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -501,8 +591,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0.48989794855663565</v>
+      <c r="M5" t="s">
+        <v>34</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -512,14 +602,14 @@
       <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>2.6</v>
-      </c>
-      <c r="D6">
-        <v>23.8</v>
-      </c>
-      <c r="E6">
-        <v>19.399999999999999</v>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -539,28 +629,28 @@
       <c r="K6">
         <v>19</v>
       </c>
-      <c r="L6">
-        <v>1.516575089</v>
-      </c>
-      <c r="M6">
-        <v>0.74833147735478822</v>
-      </c>
-      <c r="N6">
-        <v>0.4898979485566356</v>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>3.2</v>
-      </c>
-      <c r="D7">
-        <v>30.8</v>
-      </c>
-      <c r="E7">
-        <v>32.4</v>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -580,28 +670,28 @@
       <c r="K7">
         <v>31</v>
       </c>
-      <c r="L7">
-        <v>0.44721359500000002</v>
-      </c>
-      <c r="M7">
-        <v>0.74833147735478822</v>
-      </c>
-      <c r="N7">
-        <v>0.8</v>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>40</v>
       </c>
-      <c r="C8">
-        <v>1.2</v>
-      </c>
-      <c r="D8">
-        <v>41.8</v>
-      </c>
-      <c r="E8">
-        <v>41.2</v>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -621,28 +711,28 @@
       <c r="K8">
         <v>41</v>
       </c>
-      <c r="L8">
-        <v>1.095445115</v>
-      </c>
-      <c r="M8">
-        <v>0.4</v>
-      </c>
-      <c r="N8">
-        <v>1.4696938456699069</v>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>50</v>
       </c>
-      <c r="C9">
-        <v>1.2</v>
-      </c>
-      <c r="D9">
-        <v>49.6</v>
-      </c>
-      <c r="E9">
-        <v>50.6</v>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -662,28 +752,28 @@
       <c r="K9">
         <v>40</v>
       </c>
-      <c r="L9">
-        <v>0.83666002699999997</v>
-      </c>
-      <c r="M9">
-        <v>0.4898979485566356</v>
-      </c>
-      <c r="N9">
-        <v>8.5229103010650071</v>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>60</v>
       </c>
-      <c r="C10">
-        <v>1.2</v>
-      </c>
-      <c r="D10">
-        <v>62.8</v>
-      </c>
-      <c r="E10">
-        <v>60.4</v>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -703,28 +793,28 @@
       <c r="K10">
         <v>58</v>
       </c>
-      <c r="L10">
-        <v>0.44721359500000002</v>
-      </c>
-      <c r="M10">
-        <v>0.4</v>
-      </c>
-      <c r="N10">
-        <v>2.2449944320643649</v>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>70</v>
       </c>
-      <c r="C11">
-        <v>0.8</v>
-      </c>
-      <c r="D11">
-        <v>71</v>
-      </c>
-      <c r="E11">
-        <v>65.599999999999994</v>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -744,14 +834,14 @@
       <c r="K11">
         <v>71</v>
       </c>
-      <c r="L11">
-        <v>0.83666002699999997</v>
+      <c r="L11" t="s">
+        <v>33</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>2.9393876913398134</v>
+      <c r="N11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
